--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_37.qasm_rb2_archsize7_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_37.qasm_rb2_archsize7_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1207"/>
+  <dimension ref="A1:N1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.495233774185181</v>
+        <v>0.001374959945678711</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05660700798034668</v>
+        <v>0.001070022583007812</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05468487739562988</v>
+        <v>0.06821084022521973</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(5, 2), (4, 2), (5, 1), (6, 4), (5, 5), (6, 3), (4, 4), (5, 6), (3, 5), (3, 6), (1, 5), (2, 4), (1, 3), (0, 5), (2, 6), (2, 3), (2, 2), (4, 5), (1, 4), (3, 4), (3, 3), (2, 5), (0, 6), (0, 4), (3, 2), (3, 0), (2, 0), (5, 4), (4, 6), (0, 3), (0, 2), (0, 0), (2, 1), (1, 2), (1, 0), (1, 1), (0, 1)]</t>
+          <t>[[5, 2], [4, 2], [5, 1], [6, 4], [5, 5], [6, 3], [4, 4], [5, 6], [3, 5], [3, 6], [1, 5], [2, 4], [1, 3], [0, 5], [2, 6], [2, 3], [2, 2], [4, 5], [1, 4], [3, 4], [3, 3], [2, 5], [0, 6], [0, 4], [3, 2], [3, 0], [2, 0], [5, 4], [4, 6], [0, 3], [0, 2], [0, 0], [2, 1], [1, 2], [1, 0], [1, 1], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -817,7 +817,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>[(5, 2), (4, 2), (5, 1), (6, 4), (5, 5), (6, 3), (4, 4), (5, 6), (3, 5), (3, 6), (1, 5), (2, 4), (4, 0), (0, 5), (2, 6), (2, 3), (1, 4), (4, 5), (0, 4), (3, 4), (3, 3), (2, 5), (0, 6), (0, 0), (3, 2), (3, 0), (2, 0), (2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (3, 1)]</t>
+          <t>[[5, 2], [4, 2], [5, 1], [6, 4], [5, 5], [6, 3], [4, 4], [5, 6], [3, 5], [3, 6], [1, 5], [2, 4], [4, 0], [0, 5], [2, 6], [2, 3], [1, 4], [4, 5], [0, 4], [3, 4], [3, 3], [2, 5], [0, 6], [0, 0], [3, 2], [3, 0], [2, 0], [2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>[(5, 2), (4, 2), (5, 1), (6, 4), (5, 5), (6, 3), (4, 4), (5, 6), (3, 5), (2, 3), (2, 1), (2, 0), (4, 0), (3, 4), (2, 2), (5, 3), (3, 2), (4, 5), (3, 3), (2, 4), (3, 6), (2, 5), (0, 6), (1, 5), (1, 4), (0, 3), (0, 2), (1, 1), (1, 0), (0, 0), (0, 1), (1, 2), (1, 3), (0, 4), (0, 5), (1, 6), (2, 6)]</t>
+          <t>[[5, 2], [4, 2], [5, 1], [6, 4], [5, 5], [6, 3], [4, 4], [5, 6], [3, 5], [2, 3], [2, 1], [2, 0], [4, 0], [3, 4], [2, 2], [5, 3], [3, 2], [4, 5], [3, 3], [2, 4], [3, 6], [2, 5], [0, 6], [1, 5], [1, 4], [0, 3], [0, 2], [1, 1], [1, 0], [0, 0], [0, 1], [1, 2], [1, 3], [0, 4], [0, 5], [1, 6], [2, 6]]</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>[(5, 2), (4, 2), (5, 1), (6, 4), (1, 5), (6, 3), (5, 3), (3, 6), (0, 6), (0, 5), (3, 1), (2, 0), (4, 0), (1, 4), (2, 6), (5, 6), (5, 5), (4, 5), (4, 4), (3, 4), (3, 3), (2, 3), (2, 2), (1, 2), (1, 1), (0, 1), (0, 0), (1, 0), (0, 2), (2, 1), (1, 3), (3, 2), (2, 4), (4, 3), (3, 5), (5, 4), (4, 6)]</t>
+          <t>[[5, 2], [4, 2], [5, 1], [6, 4], [1, 5], [6, 3], [5, 3], [3, 6], [0, 6], [0, 5], [3, 1], [2, 0], [4, 0], [1, 4], [2, 6], [5, 6], [5, 5], [4, 5], [4, 4], [3, 4], [3, 3], [2, 3], [2, 2], [1, 2], [1, 1], [0, 1], [0, 0], [1, 0], [0, 2], [2, 1], [1, 3], [3, 2], [2, 4], [4, 3], [3, 5], [5, 4], [4, 6]]</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2865,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>[(5, 2), (4, 2), (5, 1), (6, 4), (3, 2), (6, 3), (5, 3), (1, 6), (0, 6), (3, 3), (5, 6), (5, 5), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6)]</t>
+          <t>[[5, 2], [4, 2], [5, 1], [6, 4], [3, 2], [6, 3], [5, 3], [1, 6], [0, 6], [3, 3], [5, 6], [5, 5], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6]]</t>
         </is>
       </c>
     </row>
@@ -3703,7 +3703,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>[(5, 2), (4, 2), (5, 1), (4, 1), (3, 2), (4, 3), (6, 4), (6, 3), (5, 6), (5, 5), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5)]</t>
+          <t>[[5, 2], [4, 2], [5, 1], [4, 1], [3, 2], [4, 3], [6, 4], [6, 3], [5, 6], [5, 5], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5]]</t>
         </is>
       </c>
     </row>
@@ -4633,7 +4633,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>[(5, 2), (0, 6), (5, 1), (4, 2), (6, 4), (6, 3), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2)]</t>
+          <t>[[5, 2], [0, 6], [5, 1], [4, 2], [6, 4], [6, 3], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2]]</t>
         </is>
       </c>
     </row>
@@ -5662,7 +5662,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>[(5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2)]</t>
+          <t>[[5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2]]</t>
         </is>
       </c>
     </row>
@@ -6752,7 +6752,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>[(6, 4), (6, 3), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (6, 6), (3, 1), (4, 3), (3, 2)]</t>
+          <t>[[6, 4], [6, 3], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [6, 6], [3, 1], [4, 3], [3, 2]]</t>
         </is>
       </c>
     </row>
@@ -7737,7 +7737,7 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>[(5, 6), (5, 5), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (6, 6), (6, 3), (5, 3), (6, 2), (3, 0), (3, 1), (4, 3), (3, 2)]</t>
+          <t>[[5, 6], [5, 5], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [6, 6], [6, 3], [5, 3], [6, 2], [3, 0], [3, 1], [4, 3], [3, 2]]</t>
         </is>
       </c>
     </row>
@@ -8601,7 +8601,7 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>[(4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (3, 3), (5, 5), (5, 4), (6, 5), (6, 6), (6, 3), (5, 3), (6, 2), (3, 0), (3, 1), (4, 3), (3, 2)]</t>
+          <t>[[4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [3, 3], [5, 5], [5, 4], [6, 5], [6, 6], [6, 3], [5, 3], [6, 2], [3, 0], [3, 1], [4, 3], [3, 2]]</t>
         </is>
       </c>
     </row>
@@ -9367,7 +9367,7 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>[(2, 5), (0, 6), (2, 4), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (1, 5), (2, 6), (1, 6), (3, 4), (5, 0), (4, 5), (4, 6), (3, 3), (5, 5), (5, 4), (6, 5), (6, 6), (6, 3), (5, 3), (6, 2), (3, 0), (3, 1), (4, 3), (3, 2)]</t>
+          <t>[[2, 5], [0, 6], [2, 4], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [1, 5], [2, 6], [1, 6], [3, 4], [5, 0], [4, 5], [4, 6], [3, 3], [5, 5], [5, 4], [6, 5], [6, 6], [6, 3], [5, 3], [6, 2], [3, 0], [3, 1], [4, 3], [3, 2]]</t>
         </is>
       </c>
     </row>
@@ -10070,7 +10070,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>[(6, 3), (6, 2), (5, 1), (4, 1), (3, 2), (2, 2), (1, 1), (0, 1), (0, 2), (1, 2), (2, 1), (3, 1), (4, 2), (5, 2), (6, 1), (5, 3), (6, 4), (4, 3), (1, 5), (2, 3), (4, 4), (3, 3), (5, 0), (4, 5), (4, 6), (1, 3), (5, 5), (5, 4), (6, 5), (6, 6), (0, 3), (2, 4), (6, 0), (3, 0), (2, 0), (1, 4), (3, 4)]</t>
+          <t>[[6, 3], [6, 2], [5, 1], [4, 1], [3, 2], [2, 2], [1, 1], [0, 1], [0, 2], [1, 2], [2, 1], [3, 1], [4, 2], [5, 2], [6, 1], [5, 3], [6, 4], [4, 3], [1, 5], [2, 3], [4, 4], [3, 3], [5, 0], [4, 5], [4, 6], [1, 3], [5, 5], [5, 4], [6, 5], [6, 6], [0, 3], [2, 4], [6, 0], [3, 0], [2, 0], [1, 4], [3, 4]]</t>
         </is>
       </c>
     </row>
@@ -10834,7 +10834,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>[(2, 0), (2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (3, 1), (3, 0), (4, 0), (0, 6), (0, 4), (5, 3), (6, 4), (4, 3), (1, 4), (2, 3), (4, 4), (2, 4), (0, 5), (1, 5), (4, 1), (3, 2), (3, 3), (0, 0), (6, 5), (6, 6), (1, 6), (2, 5), (6, 0), (5, 0), (4, 2), (3, 4), (3, 5)]</t>
+          <t>[[2, 0], [2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [3, 1], [3, 0], [4, 0], [0, 6], [0, 4], [5, 3], [6, 4], [4, 3], [1, 4], [2, 3], [4, 4], [2, 4], [0, 5], [1, 5], [4, 1], [3, 2], [3, 3], [0, 0], [6, 5], [6, 6], [1, 6], [2, 5], [6, 0], [5, 0], [4, 2], [3, 4], [3, 5]]</t>
         </is>
       </c>
     </row>
@@ -11490,7 +11490,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>[(2, 1), (1, 2), (1, 1), (1, 0), (0, 1), (2, 2), (2, 3), (2, 0), (0, 6), (0, 4), (3, 3), (4, 0), (4, 1), (1, 6), (2, 4), (5, 3), (6, 4), (4, 3), (2, 5), (3, 4), (4, 4), (2, 6), (3, 5), (3, 6), (4, 2), (5, 2), (4, 5), (0, 5), (1, 5), (0, 0), (0, 3), (1, 3), (0, 2), (3, 0), (3, 1), (1, 4), (3, 2)]</t>
+          <t>[[2, 1], [1, 2], [1, 1], [1, 0], [0, 1], [2, 2], [2, 3], [2, 0], [0, 6], [0, 4], [3, 3], [4, 0], [4, 1], [1, 6], [2, 4], [5, 3], [6, 4], [4, 3], [2, 5], [3, 4], [4, 4], [2, 6], [3, 5], [3, 6], [4, 2], [5, 2], [4, 5], [0, 5], [1, 5], [0, 0], [0, 3], [1, 3], [0, 2], [3, 0], [3, 1], [1, 4], [3, 2]]</t>
         </is>
       </c>
     </row>
@@ -11929,110 +11929,120 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B1203" t="n">
-        <v>194</v>
+        <v>0.9876313920201485</v>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B1204" t="n">
-        <v>984</v>
+        <v>194</v>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B1205" t="n">
-        <v>15</v>
+        <v>984</v>
       </c>
     </row>
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B1206" t="n">
-        <v>6.734544038772583</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B1207" t="n">
+        <v>0.2727668285369873</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B1207" t="inlineStr">
+      <c r="B1208" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C1207" t="inlineStr">
+      <c r="C1208" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D1207" t="inlineStr">
+      <c r="D1208" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E1207" t="inlineStr">
+      <c r="E1208" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F1207" t="inlineStr">
+      <c r="F1208" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G1207" t="inlineStr">
+      <c r="G1208" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H1207" t="inlineStr">
+      <c r="H1208" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I1207" t="inlineStr">
+      <c r="I1208" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J1207" t="inlineStr">
+      <c r="J1208" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K1207" t="inlineStr">
+      <c r="K1208" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L1207" t="inlineStr">
+      <c r="L1208" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M1207" t="inlineStr">
+      <c r="M1208" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N1207" t="inlineStr">
+      <c r="N1208" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
